--- a/biology/Histoire de la zoologie et de la botanique/Nicolas_Marie_Thérèse_Jolyclerc/Nicolas_Marie_Thérèse_Jolyclerc.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Nicolas_Marie_Thérèse_Jolyclerc/Nicolas_Marie_Thérèse_Jolyclerc.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Nicolas_Marie_Th%C3%A9r%C3%A8se_Jolyclerc</t>
+          <t>Nicolas_Marie_Thérèse_Jolyclerc</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Nicolas Marie Thérèse Jolyclerc est un écrivain et un botaniste français, né en 1746 à Lyon et mort en 1817.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Nicolas_Marie_Th%C3%A9r%C3%A8se_Jolyclerc</t>
+          <t>Nicolas_Marie_Thérèse_Jolyclerc</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il entre à quatorze ans chez les Bénédictins. Passionné par la botanique et contraint de ne pas quitter le couvent (il avait fait le mur[style à revoir] pour herboriser), il profite de la bibliothèque pour y étudier tous les ouvrages traitant de plantes.
 Au moment de la Révolution, profitant de la sécularisation des couvents, il quitte l’Église et devient professeur d’histoire naturelle à Tulle puis à Beauvais. On raconte qu’ayant expliqué le rôle des fleurs dans la reproduction des plantes à un public de jeunes filles, il provoque le courroux des parents qui lui interdisent d’enseigner.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Nicolas_Marie_Th%C3%A9r%C3%A8se_Jolyclerc</t>
+          <t>Nicolas_Marie_Thérèse_Jolyclerc</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Adrien Davy de Virville (dir.) (1955). Histoire de la botanique en France. SEDES (Paris) : 394 p.
 Pascal Duris (1993). Linné et la France (1780-1850). Librairie Droz (Genève), collection Histoire des idées et critique littéraire, no 318 : 281 p.</t>
